--- a/策划案/日本語を勉強/N2冲刺/単語/日本語能力試験N2単語2500源.xlsx
+++ b/策划案/日本語を勉強/N2冲刺/単語/日本語能力試験N2単語2500源.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOCUMENT\doc\DesignerDoc\策划案\日本語を勉強\N2冲刺\単語\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENT\doc\DesignerDoc\策划案\日本語を勉強\N2冲刺\単語\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A48941F-839A-426D-8C89-A96189A81609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B98D987-0575-44F3-8CA7-019488EF45BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一" sheetId="3" r:id="rId1"/>
@@ -13010,11 +13010,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B6D8DE-1001-4A7C-B99A-45EDAFD9F35E}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13022,8 +13022,7 @@
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="22.625" customWidth="1"/>
     <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="4" max="5" width="15.625" customWidth="1"/>
     <col min="6" max="6" width="35.875" customWidth="1"/>
     <col min="7" max="7" width="50.25" customWidth="1"/>
   </cols>
@@ -13053,7 +13052,7 @@
         <v>108</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>311</v>
@@ -14253,11 +14252,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33011D7F-D3D2-4E4E-8656-0799C624E168}">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
